--- a/Par Levels Store/Marietta_par_level.xlsx
+++ b/Par Levels Store/Marietta_par_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Par_Level_updates\Par Levels Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B074F0-C1AD-40F2-BF62-B56E3C9F3A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970E1FB-0C1C-4AA2-97C5-189B83E052E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="177">
   <si>
     <t>Category</t>
   </si>
@@ -39,21 +39,9 @@
     <t>DD Stock Room (Primary)</t>
   </si>
   <si>
-    <t>4# DD WHITE BAGEL BAGS 1000 COUNT</t>
-  </si>
-  <si>
-    <t>8# DD RB WHITE BAGEL BAGS 1000 COUNT</t>
-  </si>
-  <si>
     <t>DD CML Products (Primary)</t>
   </si>
   <si>
-    <t>Everything Bagel Topping 10 pounds</t>
-  </si>
-  <si>
-    <t>Sesame Seed Bagel Topping 10 pounds</t>
-  </si>
-  <si>
     <t>DD Freezer (Primary)</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>Topping Dunkin Sweet Cold Foam 12/15oz 12/15 OZ</t>
   </si>
   <si>
-    <t>Topping Beverage Waffle Cone 5/1lb bags</t>
-  </si>
-  <si>
     <t>BOX PAPER CLAM SHELL NEW 400 COUNT</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>CMT Munchkin Bucket w/lid Summer 25 50ct</t>
   </si>
   <si>
-    <t>Carrier 4 Cup 300 per case 300/PER CASE CS</t>
-  </si>
-  <si>
     <t>Bread Sourdough 176 Slices Per Case 176/PER CASE CS</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>Spread Avocado 50/1.75 ounce</t>
   </si>
   <si>
-    <t>Butter with Canola Oil 6/24 ounce</t>
-  </si>
-  <si>
     <t>Chipotle Aioli 20/12oz pouches per case</t>
   </si>
   <si>
@@ -261,18 +240,6 @@
     <t>Whole Milk Gallons 4 per case 4/1 GAL</t>
   </si>
   <si>
-    <t>JB Plain Cake Donut Ring 144 per case</t>
-  </si>
-  <si>
-    <t>JB Pumpkin Cake Ring 144 per case 144/PER CASE</t>
-  </si>
-  <si>
-    <t>JB Sour Cream Donut 120 per case 120/PER CASE CS</t>
-  </si>
-  <si>
-    <t>JB Yeast Ring 120 per case</t>
-  </si>
-  <si>
     <t>Egg Fried MF 228 per case</t>
   </si>
   <si>
@@ -315,277 +282,281 @@
     <t>Gatorade Cool Blue 24/20 ounce</t>
   </si>
   <si>
+    <t>Gatorade 20oz 1/24cs Lemon Lime</t>
+  </si>
+  <si>
+    <t>Hashbrown Reduced Sodium 6/3 lb</t>
+  </si>
+  <si>
+    <t>Hot Chocolate Original 8/3 pound bags</t>
+  </si>
+  <si>
+    <t>Tropicana Apple Juice 24/10 ounce 24/10 OZ</t>
+  </si>
+  <si>
+    <t>Tropicana Orange Juice 11oz 24pk 24/11OZ</t>
+  </si>
+  <si>
+    <t>Breakfast Bowl Lid 500 per case</t>
+  </si>
+  <si>
+    <t>Cold Cup Flat Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
+  </si>
+  <si>
+    <t>Cold Cup Lid 32 ounce Flat 1000 per case</t>
+  </si>
+  <si>
+    <t>COLD CUP 16/24OZ PET LID SIP 1080 COUNT</t>
+  </si>
+  <si>
+    <t>COLD CUP PET LID SIP 32 OUNCE 900 COUNT</t>
+  </si>
+  <si>
+    <t>Cold Cup Dome Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
+  </si>
+  <si>
+    <t>Cold PP Dome Lid 32 ounce 1000 per case</t>
+  </si>
+  <si>
+    <t>HOT CUP LID 4 OUNCE 1000 PER CASE</t>
+  </si>
+  <si>
+    <t>LID POLY FOR DW HOT CUPS 1200 PER CASE</t>
+  </si>
+  <si>
+    <t>Bacon Cherrywood 4/150 4/150</t>
+  </si>
+  <si>
+    <t>Pork Sausage Patty 106 per case 1/106</t>
+  </si>
+  <si>
+    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
+  </si>
+  <si>
+    <t>Muffin Blueberry RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Muffin Coffee Cake RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Ketchup Packet 1500/9 G</t>
+  </si>
+  <si>
+    <t>Sandwich Wrap 2000 per case</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
+  </si>
+  <si>
+    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
+  </si>
+  <si>
+    <t>Universal Sleeve Original 2000 per case</t>
+  </si>
+  <si>
+    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Mountain Dew 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Pepsi Zero Sugar 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
+  </si>
+  <si>
+    <t>FTO Braided Apple Strudel 108 count</t>
+  </si>
+  <si>
+    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
+  </si>
+  <si>
+    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case 1/3.1</t>
+  </si>
+  <si>
+    <t>Sugar Packets 2000 per case 1000/*</t>
+  </si>
+  <si>
+    <t>BULK Splenda 12 Pounds 12/1 LB</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case</t>
+  </si>
+  <si>
+    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
+  </si>
+  <si>
+    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Caramel 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl French Vanilla 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
+  </si>
+  <si>
+    <t>Swirl Mocha 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Pumpkin 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
+  </si>
+  <si>
+    <t>Syrup Secret Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
+  </si>
+  <si>
+    <t>Chai Tea Concentrate 6/30 ounce</t>
+  </si>
+  <si>
+    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
+  </si>
+  <si>
+    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
+  </si>
+  <si>
+    <t>Tea Green Harmony Leaf Pyramid 6/15 ct</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags</t>
+  </si>
+  <si>
+    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
+  </si>
+  <si>
+    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
+  </si>
+  <si>
+    <t>Tumbler Bermuda</t>
+  </si>
+  <si>
+    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
+  </si>
+  <si>
+    <t>Par Level/ Case</t>
+  </si>
+  <si>
+    <t>In the Store</t>
+  </si>
+  <si>
+    <t>Need to Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Dunkin' Midnight 6/12</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Munchkin Box</t>
+  </si>
+  <si>
+    <t>Sipper Acrylic Bamboo Lid CMT 6/24 ounce 6/24 OZ</t>
+  </si>
+  <si>
+    <t>Sipper Iced with Keychain CMT 12/24oz</t>
+  </si>
+  <si>
     <t>GATORADE 20OZ 1/24CS LEMON LIME</t>
   </si>
   <si>
-    <t>Gatorade 20oz 1/24cs Lemon Lime</t>
-  </si>
-  <si>
-    <t>Hashbrown Reduced Sodium 6/3 lb</t>
-  </si>
-  <si>
-    <t>Hot Chocolate Original 8/3 pound bags</t>
-  </si>
-  <si>
-    <t>Tropicana Apple Juice 24/10 ounce 24/10 OZ</t>
-  </si>
-  <si>
-    <t>Tropicana Orange Juice 11oz 24pk 24/11OZ</t>
-  </si>
-  <si>
-    <t>Breakfast Bowl Lid 500 per case</t>
-  </si>
-  <si>
-    <t>Cold Cup Flat Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
-  </si>
-  <si>
-    <t>Cold Cup Lid 32 ounce Flat 1000 per case</t>
-  </si>
-  <si>
-    <t>COLD CUP 16/24OZ PET LID SIP 1080 COUNT</t>
-  </si>
-  <si>
-    <t>COLD CUP PET LID SIP 32 OUNCE 900 COUNT</t>
-  </si>
-  <si>
-    <t>Cold Cup Dome Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
-  </si>
-  <si>
-    <t>Cold PP Dome Lid 32 ounce 1000 per case</t>
-  </si>
-  <si>
-    <t>HOT CUP LID 4 OUNCE 1000 PER CASE</t>
-  </si>
-  <si>
-    <t>LID POLY FOR DW HOT CUPS 1200 PER CASE</t>
-  </si>
-  <si>
-    <t>Bacon Cherrywood 4/150 4/150</t>
-  </si>
-  <si>
-    <t>Pork Sausage Patty 106 per case 1/106</t>
-  </si>
-  <si>
-    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
-  </si>
-  <si>
-    <t>Muffin Blueberry RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Coffee Cake RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>JB Yeast Munchkin 350 per case</t>
-  </si>
-  <si>
-    <t>Interfolded Napkin 1/6000</t>
-  </si>
-  <si>
-    <t>Ketchup Packet 1500/9 G</t>
-  </si>
-  <si>
-    <t>Sandwich Wrap 2000 per case</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
-  </si>
-  <si>
     <t>COFFEE WHOLE BEAN POC REGULAR 24/16 OZ</t>
   </si>
   <si>
-    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
-  </si>
-  <si>
-    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
-  </si>
-  <si>
-    <t>Universal Sleeve Original 2000 per case</t>
-  </si>
-  <si>
-    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Mountain Dew 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Pepsi Zero Sugar 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
-  </si>
-  <si>
-    <t>Straw 10.25 Inch Orange/Pink Large 1200</t>
-  </si>
-  <si>
-    <t>Straw 8.25 Inch Orange/Pink Small</t>
-  </si>
-  <si>
-    <t>FTO Braided Apple Strudel 108 count</t>
-  </si>
-  <si>
-    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
-  </si>
-  <si>
-    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case 1/3.1</t>
-  </si>
-  <si>
-    <t>Sugar Packets 2000 per case 1000/*</t>
-  </si>
-  <si>
-    <t>BULK Splenda 12 Pounds 12/1 LB</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case</t>
-  </si>
-  <si>
-    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
-  </si>
-  <si>
-    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Caramel 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl French Vanilla 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
-  </si>
-  <si>
-    <t>Swirl Mocha 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Pumpkin 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
-  </si>
-  <si>
-    <t>Syrup Secret Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
-  </si>
-  <si>
-    <t>Chai Tea Concentrate 6/30 ounce</t>
-  </si>
-  <si>
-    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
-  </si>
-  <si>
-    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
-  </si>
-  <si>
-    <t>Tea Green Harmony Leaf Pyramid 6/15 ct</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags</t>
-  </si>
-  <si>
-    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
-  </si>
-  <si>
-    <t>Vinyl Gloves Medium</t>
-  </si>
-  <si>
-    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
-  </si>
-  <si>
-    <t>Iced Coffee Filter 2/250 500/*</t>
-  </si>
-  <si>
-    <t>JB French Cruller RE 96 per case</t>
-  </si>
-  <si>
-    <t>Cold Brew Toddy Filter 1/50 PACK PAK</t>
-  </si>
-  <si>
-    <t>Iced Coffee Filter 2/250</t>
-  </si>
-  <si>
-    <t>Plastic Fork Wrapped 1000ct</t>
-  </si>
-  <si>
-    <t>Pan Liner Envirobake New 1000 case</t>
-  </si>
-  <si>
-    <t>Ice Coffee Tap System Liner 100 per case</t>
-  </si>
-  <si>
-    <t>Pan Liner TurboChef Oven New 2400 2400/CASE</t>
-  </si>
-  <si>
-    <t>Non Wax Tissue 10 cartons 1000 per case</t>
-  </si>
-  <si>
-    <t>Delivery Insert for 2 Cups New 150/case</t>
-  </si>
-  <si>
-    <t>Bulk Sweet N Low 12/8 Ounce 12/8 OZ</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless w Handle 6/40 ounce 6/40OZ</t>
-  </si>
-  <si>
-    <t>JB Chocolate Cake Munchkin 440 per case 440/.47OZ</t>
-  </si>
-  <si>
-    <t>Summer Surf Hats Merchandiser 6 ct</t>
-  </si>
-  <si>
-    <t>Tumbler Bermuda Pink Black White 6/20</t>
-  </si>
-  <si>
-    <t>Tumbler Bermuda</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless Donut 6/22oz per case 1/6</t>
-  </si>
-  <si>
-    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
-  </si>
-  <si>
-    <t>Swirl Cookie Dough 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
-  </si>
-  <si>
-    <t>Par Level/ Case</t>
-  </si>
-  <si>
-    <t>In the Store</t>
-  </si>
-  <si>
-    <t>Need to Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
-  </si>
-  <si>
-    <t>OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
+    <t>Do not count (Equipment/Cleaning)</t>
+  </si>
+  <si>
+    <t>Schaerer Cleaning Tablets</t>
+  </si>
+  <si>
+    <t>On The Go Pink Thermal Tape 1 CV/* CS</t>
+  </si>
+  <si>
+    <t>PG Quat Sanitizer 3/1 Gal Clean Quick</t>
+  </si>
+  <si>
+    <t>Roll Towel White 6/800 feet</t>
+  </si>
+  <si>
+    <t>Printer DayMark</t>
+  </si>
+  <si>
+    <t>Thermal Register Paper 3 1/8 50 pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
+  </si>
+  <si>
+    <t>HDPE Trash Bags 40-45 Gal 200 PER CASE</t>
+  </si>
+  <si>
+    <t>Dunkin Visor 2021 6 Pack</t>
+  </si>
+  <si>
+    <t>Rockstar Energy 24/16 ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Wipes 150 per case 150 WIPES/CASE	</t>
+  </si>
+  <si>
+    <t>College Tumbler Penn State 6/24 ounce</t>
+  </si>
+  <si>
+    <t>Dog Toys Barkbox 2025 8 count 1/8 COUNT</t>
+  </si>
+  <si>
+    <t>DD Beanie 6 pack 1/6 CT</t>
+  </si>
+  <si>
+    <t>Maple Sugar Bacon Rub 10/3 ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-Go Stickers 8 rolls/cv 1/8 /1000CT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Herbal Chamomile Pyramid 6/15 count 15/90 CT	</t>
   </si>
 </sst>
 </file>
@@ -650,29 +621,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,261 +956,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE55B1-FF2A-4E90-A32A-AA62D998A64B}">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3">
         <v>914841</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="8">
-        <v>914240</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="3">
+        <v>914215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="8">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
         <v>915030</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.12</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8">
-        <v>914215</v>
+        <v>63</v>
+      </c>
+      <c r="B6" s="3">
+        <v>914211</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="8">
-        <v>150205</v>
+        <v>63</v>
+      </c>
+      <c r="B7" s="3">
+        <v>914212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8">
-        <v>914241</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="3">
+        <v>914748</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3">
-        <v>0.38</v>
+        <v>1.17</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="8">
-        <v>914212</v>
+        <v>63</v>
+      </c>
+      <c r="B9" s="3">
+        <v>150205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="8">
-        <v>914238</v>
+        <v>63</v>
+      </c>
+      <c r="B10" s="3">
+        <v>914240</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8">
-        <v>914243</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="3">
+        <v>914241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="8">
-        <v>214800</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="3">
+        <v>914238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="8">
-        <v>914211</v>
+        <v>63</v>
+      </c>
+      <c r="B13" s="3">
+        <v>914243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="8">
-        <v>914748</v>
+        <v>63</v>
+      </c>
+      <c r="B14" s="3">
+        <v>214800</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8">
-        <v>282675</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>233268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
         <v>233271</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1254,569 +1222,591 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>911586</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8">
-        <v>233268</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8">
-        <v>913040</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>912373</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8">
-        <v>914369</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>912371</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>1.89</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>911682</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8">
-        <v>914687</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D20" s="3">
-        <v>3.67</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8">
-        <v>913645</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>911585</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>0.98</v>
+        <v>3.46</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8">
-        <v>910958</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>913040</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
-        <v>5.49</v>
+        <v>1.18</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="8">
-        <v>914370</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>914369</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8">
-        <v>912373</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>914687</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3">
-        <v>1.32</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="8">
-        <v>912371</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>910958</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
-        <v>1.08</v>
+        <v>5.39</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="8">
-        <v>913977</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>913645</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="8">
-        <v>914761</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>914370</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3">
-        <v>0.32</v>
+        <v>1.93</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="8">
-        <v>911586</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>913977</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D28" s="3">
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="8">
-        <v>911682</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>912034</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3">
-        <v>0.12</v>
+        <v>6.5</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="8">
-        <v>911585</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>914693</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D30" s="3">
-        <v>2.83</v>
+        <v>2.21</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="8">
-        <v>912034</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>914863</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" s="3">
-        <v>5.83</v>
+        <v>0.8</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="8">
-        <v>912764</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>912618</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.21</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="8">
-        <v>911489</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>912615</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.05</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="8">
-        <v>912826</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>912616</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.18</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="8">
-        <v>233218</v>
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>914995</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="8">
-        <v>232507</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>914919</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.15</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="8">
-        <v>912762</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>914761</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="8">
-        <v>912821</v>
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>911323</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.79</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="8">
-        <v>914919</v>
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>913678</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D39" s="3">
-        <v>0.9</v>
+        <v>0.04</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="8">
-        <v>914995</v>
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
+        <v>200200</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="8">
-        <v>912618</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="3">
+        <v>200110</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.25</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="8">
-        <v>912615</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="3">
+        <v>914770</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D42" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="8">
-        <v>912616</v>
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>912435</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="8">
-        <v>914693</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
+        <v>914938</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3">
-        <v>2.67</v>
+        <v>1.08</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="8">
-        <v>911323</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>913560</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="8">
-        <v>914863</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <v>913960</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3">
-        <v>0.79</v>
+        <v>1.58</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="8">
-        <v>200200</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>912939</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="8">
-        <v>200110</v>
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
+        <v>914343</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.24</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="8">
-        <v>914954</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>912508</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.01</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="8">
-        <v>914770</v>
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>914223</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="D50" s="3">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="8">
-        <v>914408</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
+        <v>914722</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.51</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="8">
-        <v>914935</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>912513</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.48</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="8">
-        <v>914735</v>
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>912511</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.42</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
@@ -1824,13 +1814,15 @@
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="8">
-        <v>914930</v>
+      <c r="B54" s="3">
+        <v>914224</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
@@ -1838,13 +1830,15 @@
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="8">
-        <v>912644</v>
+      <c r="B55" s="3">
+        <v>914225</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.09</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
@@ -1852,14 +1846,14 @@
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="8">
-        <v>912508</v>
+      <c r="B56" s="3">
+        <v>914754</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1868,14 +1862,14 @@
       <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="8">
-        <v>914938</v>
+      <c r="B57" s="3">
+        <v>914986</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D57" s="3">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1884,14 +1878,14 @@
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="8">
-        <v>912513</v>
+      <c r="B58" s="3">
+        <v>200000</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="3">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1900,14 +1894,14 @@
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8">
-        <v>914343</v>
+      <c r="B59" s="3">
+        <v>204177</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D59" s="3">
-        <v>0.25</v>
+        <v>3.33</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1916,14 +1910,14 @@
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8">
-        <v>300131</v>
+      <c r="B60" s="3">
+        <v>201000</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D60" s="3">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1932,14 +1926,14 @@
       <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8">
-        <v>300130</v>
+      <c r="B61" s="3">
+        <v>206000</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D61" s="3">
-        <v>0.21</v>
+        <v>3.88</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1948,14 +1942,14 @@
       <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="8">
-        <v>911689</v>
+      <c r="B62" s="3">
+        <v>206200</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1964,13 +1958,15 @@
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="8">
-        <v>914390</v>
+      <c r="B63" s="3">
+        <v>914656</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4.45</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
@@ -1978,13 +1974,15 @@
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="8">
-        <v>913959</v>
+      <c r="B64" s="3">
+        <v>914825</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.35</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
@@ -1992,14 +1990,14 @@
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="8">
-        <v>911490</v>
+      <c r="B65" s="3">
+        <v>913537</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2008,14 +2006,14 @@
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8">
-        <v>914986</v>
+      <c r="B66" s="3">
+        <v>911059</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2024,14 +2022,14 @@
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8">
-        <v>200000</v>
+      <c r="B67" s="3">
+        <v>912381</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D67" s="3">
-        <v>1.17</v>
+        <v>0.25</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2040,14 +2038,14 @@
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="8">
-        <v>201000</v>
+      <c r="B68" s="3">
+        <v>260020</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D68" s="3">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2056,14 +2054,14 @@
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="8">
-        <v>204177</v>
+      <c r="B69" s="3">
+        <v>300131</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D69" s="3">
-        <v>3.33</v>
+        <v>0.21</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2072,13 +2070,15 @@
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="8">
-        <v>913754</v>
+      <c r="B70" s="3">
+        <v>911757</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.41</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
@@ -2086,14 +2086,14 @@
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8">
-        <v>913425</v>
+      <c r="B71" s="3">
+        <v>911758</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D71" s="3">
-        <v>0.25</v>
+        <v>3.12</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2102,14 +2102,14 @@
       <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="8">
-        <v>911100</v>
+      <c r="B72" s="3">
+        <v>911759</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D72" s="3">
-        <v>0.24</v>
+        <v>2.68</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2118,14 +2118,14 @@
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8">
-        <v>911099</v>
+      <c r="B73" s="3">
+        <v>913584</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D73" s="3">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2134,14 +2134,14 @@
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8">
-        <v>911757</v>
+      <c r="B74" s="3">
+        <v>914182</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D74" s="3">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2150,14 +2150,14 @@
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="8">
-        <v>911758</v>
+      <c r="B75" s="3">
+        <v>914181</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D75" s="3">
-        <v>3.2</v>
+        <v>0.76</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -2166,14 +2166,14 @@
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="8">
-        <v>911759</v>
+      <c r="B76" s="3">
+        <v>914180</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D76" s="3">
-        <v>2.69</v>
+        <v>0.44</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2182,14 +2182,14 @@
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="8">
-        <v>911101</v>
+      <c r="B77" s="3">
+        <v>914183</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D77" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2198,14 +2198,14 @@
       <c r="A78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8">
-        <v>913424</v>
+      <c r="B78" s="3">
+        <v>912320</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D78" s="3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2214,14 +2214,14 @@
       <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="8">
-        <v>911372</v>
+      <c r="B79" s="3">
+        <v>913590</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D79" s="3">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2230,14 +2230,14 @@
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8">
-        <v>911059</v>
+      <c r="B80" s="3">
+        <v>913589</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D80" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2246,14 +2246,14 @@
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8">
-        <v>912381</v>
+      <c r="B81" s="3">
+        <v>913300</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D81" s="3">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2262,14 +2262,14 @@
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="8">
-        <v>260020</v>
+      <c r="B82" s="3">
+        <v>913342</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D82" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -2278,14 +2278,14 @@
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="8">
-        <v>912018</v>
+      <c r="B83" s="3">
+        <v>913588</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="D83" s="3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -2294,14 +2294,14 @@
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="8">
-        <v>912320</v>
+      <c r="B84" s="3">
+        <v>913587</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -2310,14 +2310,14 @@
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="8">
-        <v>914825</v>
+      <c r="B85" s="3">
+        <v>915030</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D85" s="3">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -2326,13 +2326,15 @@
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="8">
-        <v>912833</v>
+      <c r="B86" s="3">
+        <v>914380</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.88</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
@@ -2340,14 +2342,14 @@
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="8">
-        <v>914223</v>
+      <c r="B87" s="3">
+        <v>300130</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D87" s="3">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -2356,14 +2358,14 @@
       <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="8">
-        <v>914722</v>
+      <c r="B88" s="3">
+        <v>911099</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D88" s="3">
-        <v>0.48</v>
+        <v>1.75</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -2372,14 +2374,14 @@
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="8">
-        <v>913537</v>
+      <c r="B89" s="3">
+        <v>911101</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D89" s="3">
-        <v>0.16</v>
+        <v>1.07</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -2388,14 +2390,14 @@
       <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="8">
-        <v>913584</v>
+      <c r="B90" s="3">
+        <v>913425</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2404,14 +2406,14 @@
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="8">
-        <v>206000</v>
+      <c r="B91" s="3">
+        <v>913424</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D91" s="3">
-        <v>3.5</v>
+        <v>0.16</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2420,11 +2422,11 @@
       <c r="A92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="8">
-        <v>206200</v>
+      <c r="B92" s="3">
+        <v>911100</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D92" s="3">
         <v>0.25</v>
@@ -2436,14 +2438,14 @@
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="8">
-        <v>250000</v>
+      <c r="B93" s="3">
+        <v>911372</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="D93" s="3">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -2452,14 +2454,14 @@
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="8">
-        <v>913590</v>
+      <c r="B94" s="3">
+        <v>300120</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -2468,14 +2470,14 @@
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="8">
-        <v>913589</v>
+      <c r="B95" s="3">
+        <v>914665</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D95" s="3">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -2484,14 +2486,14 @@
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8">
-        <v>913342</v>
+      <c r="B96" s="3">
+        <v>914848</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -2500,14 +2502,14 @@
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="8">
-        <v>913588</v>
+      <c r="B97" s="3">
+        <v>913991</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -2516,14 +2518,14 @@
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="8">
-        <v>913587</v>
+      <c r="B98" s="3">
+        <v>312799</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D98" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -2532,14 +2534,14 @@
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="8">
-        <v>913300</v>
+      <c r="B99" s="3">
+        <v>914851</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D99" s="3">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -2548,14 +2550,14 @@
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="8">
-        <v>915030</v>
+      <c r="B100" s="3">
+        <v>267082</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D100" s="3">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -2564,14 +2566,14 @@
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="8">
-        <v>312799</v>
+      <c r="B101" s="3">
+        <v>252000</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D101" s="3">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -2580,14 +2582,14 @@
       <c r="A102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="8">
-        <v>914380</v>
+      <c r="B102" s="3">
+        <v>913529</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D102" s="3">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -2596,14 +2598,14 @@
       <c r="A103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="8">
-        <v>914180</v>
+      <c r="B103" s="3">
+        <v>250500</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D103" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -2612,14 +2614,14 @@
       <c r="A104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="8">
-        <v>914181</v>
+      <c r="B104" s="3">
+        <v>911689</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="D104" s="3">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -2628,14 +2630,14 @@
       <c r="A105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="8">
-        <v>914182</v>
+      <c r="B105" s="3">
+        <v>913529</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D105" s="3">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -2644,14 +2646,14 @@
       <c r="A106" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="8">
-        <v>914183</v>
+      <c r="B106" s="3">
+        <v>250000</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D106" s="3">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -2660,14 +2662,14 @@
       <c r="A107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="8">
-        <v>300120</v>
+      <c r="B107" s="3">
+        <v>910912</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -2676,13 +2678,15 @@
       <c r="A108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="8">
-        <v>912127</v>
+      <c r="B108" s="3">
+        <v>266016</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4.5</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
@@ -2690,13 +2694,15 @@
       <c r="A109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="8">
-        <v>314205</v>
+      <c r="B109" s="3">
+        <v>910971</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="D109" s="3">
+        <v>3.25</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
@@ -2704,13 +2710,15 @@
       <c r="A110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="8">
-        <v>314205</v>
+      <c r="B110" s="3">
+        <v>914807</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.25</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
@@ -2718,14 +2726,14 @@
       <c r="A111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="8">
-        <v>914656</v>
+      <c r="B111" s="3">
+        <v>266105</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D111" s="3">
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -2734,13 +2742,15 @@
       <c r="A112" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="8">
-        <v>914787</v>
+      <c r="B112" s="3">
+        <v>253060</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
@@ -2748,14 +2758,14 @@
       <c r="A113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="8">
-        <v>914848</v>
+      <c r="B113" s="3">
+        <v>914402</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -2764,14 +2774,14 @@
       <c r="A114" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="8">
-        <v>913560</v>
+      <c r="B114" s="3">
+        <v>911706</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="D114" s="3">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -2780,14 +2790,14 @@
       <c r="A115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="8">
-        <v>914665</v>
+      <c r="B115" s="3">
+        <v>914404</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D115" s="3">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -2796,11 +2806,11 @@
       <c r="A116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="8">
-        <v>267082</v>
+      <c r="B116" s="3">
+        <v>911076</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -2812,14 +2822,14 @@
       <c r="A117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="8">
-        <v>913960</v>
+      <c r="B117" s="3">
+        <v>914845</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D117" s="3">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -2828,14 +2838,14 @@
       <c r="A118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="8">
-        <v>912435</v>
+      <c r="B118" s="3">
+        <v>910263</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D118" s="3">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -2844,14 +2854,14 @@
       <c r="A119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="8">
-        <v>912511</v>
+      <c r="B119" s="3">
+        <v>911490</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D119" s="3">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -2860,14 +2870,14 @@
       <c r="A120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="8">
-        <v>914224</v>
+      <c r="B120" s="3">
+        <v>910270</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="D120" s="3">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -2876,14 +2886,14 @@
       <c r="A121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="8">
-        <v>914225</v>
+      <c r="B121" s="3">
+        <v>912018</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="D121" s="3">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -2892,13 +2902,15 @@
       <c r="A122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="8">
-        <v>317020</v>
+      <c r="B122" s="3">
+        <v>910265</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D122" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.33</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
@@ -2906,13 +2918,15 @@
       <c r="A123" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="8">
-        <v>914475</v>
+      <c r="B123" s="3">
+        <v>912745</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.31</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
@@ -2920,465 +2934,459 @@
       <c r="A124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="8">
-        <v>911973</v>
+      <c r="B124" s="3">
+        <v>912745</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.22</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="8">
-        <v>915008</v>
+        <v>17</v>
+      </c>
+      <c r="B125" s="3">
+        <v>914669</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D125" s="3">
+        <v>3.42</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="8">
-        <v>913991</v>
+        <v>17</v>
+      </c>
+      <c r="B126" s="3">
+        <v>911028</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D126" s="3">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="8">
-        <v>282475</v>
+        <v>17</v>
+      </c>
+      <c r="B127" s="3">
+        <v>912639</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1.33</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="8">
-        <v>914754</v>
+        <v>17</v>
+      </c>
+      <c r="B128" s="3">
+        <v>913019</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D128" s="3">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="8">
-        <v>316805</v>
+        <v>17</v>
+      </c>
+      <c r="B129" s="3">
+        <v>912557</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1.58</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="8">
-        <v>316515</v>
+        <v>17</v>
+      </c>
+      <c r="B130" s="3">
+        <v>914677</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.6</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="8">
-        <v>912939</v>
+        <v>17</v>
+      </c>
+      <c r="B131" s="3">
+        <v>150145</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D131" s="3">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="8">
-        <v>250500</v>
+        <v>17</v>
+      </c>
+      <c r="B132" s="3">
+        <v>911403</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="8">
-        <v>252000</v>
+        <v>17</v>
+      </c>
+      <c r="B133" s="3">
+        <v>911405</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="8">
-        <v>913529</v>
+        <v>17</v>
+      </c>
+      <c r="B134" s="3">
+        <v>911406</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="8">
-        <v>913529</v>
+        <v>17</v>
+      </c>
+      <c r="B135" s="3">
+        <v>914864</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="8">
-        <v>910912</v>
+        <v>17</v>
+      </c>
+      <c r="B136" s="3">
+        <v>266200</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="D136" s="3">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="8">
-        <v>266016</v>
+        <v>17</v>
+      </c>
+      <c r="B137" s="3">
+        <v>914371</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="D137" s="3">
-        <v>4.83</v>
+        <v>3.33</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="8">
-        <v>914985</v>
+        <v>17</v>
+      </c>
+      <c r="B138" s="3">
+        <v>150110</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="D138" s="3">
-        <v>1.25</v>
+        <v>6.44</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="8">
-        <v>910971</v>
+        <v>17</v>
+      </c>
+      <c r="B139" s="3">
+        <v>912847</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D139" s="3">
-        <v>3.25</v>
+        <v>7.67</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="8">
-        <v>914807</v>
+        <v>17</v>
+      </c>
+      <c r="B140" s="3">
+        <v>150420</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D140" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="8">
-        <v>266105</v>
+        <v>17</v>
+      </c>
+      <c r="B141" s="3">
+        <v>150811</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="D141" s="3">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" s="8">
-        <v>253060</v>
+        <v>17</v>
+      </c>
+      <c r="B142" s="3">
+        <v>150240</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D142" s="3">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="8">
-        <v>914402</v>
+        <v>17</v>
+      </c>
+      <c r="B143" s="3">
+        <v>912907</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D143" s="3">
-        <v>0.25</v>
+        <v>3.71</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="8">
-        <v>911706</v>
+        <v>17</v>
+      </c>
+      <c r="B144" s="3">
+        <v>913161</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D144" s="3">
-        <v>0.75</v>
+        <v>1.62</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="8">
-        <v>914404</v>
+        <v>159</v>
+      </c>
+      <c r="B145" s="3">
+        <v>912283</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="3">
-        <v>0.25</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="8">
-        <v>911076</v>
+        <v>159</v>
+      </c>
+      <c r="B146" s="3">
+        <v>911206</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D146" s="3">
-        <v>1.25</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="8">
-        <v>914845</v>
+        <v>159</v>
+      </c>
+      <c r="B147" s="3">
+        <v>352222</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D147" s="3">
-        <v>0.25</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B148" s="8">
-        <v>910263</v>
+        <v>159</v>
+      </c>
+      <c r="B148" s="3">
+        <v>915064</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148" s="3">
-        <v>0.03</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" s="8">
-        <v>910265</v>
+        <v>159</v>
+      </c>
+      <c r="B149" s="3">
+        <v>913941</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D149" s="3">
-        <v>0.33</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="8">
-        <v>910270</v>
+        <v>159</v>
+      </c>
+      <c r="B150" s="3">
+        <v>713102</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B151" s="8">
-        <v>912745</v>
+        <v>159</v>
+      </c>
+      <c r="B151" s="3">
+        <v>915061</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D151" s="3">
-        <v>0.28000000000000003</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="8">
-        <v>912745</v>
+        <v>159</v>
+      </c>
+      <c r="B152" s="3">
+        <v>910885</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D152" s="3">
-        <v>0.28000000000000003</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" s="8">
-        <v>914832</v>
+        <v>159</v>
+      </c>
+      <c r="B153" s="3">
+        <v>913634</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -3386,29 +3394,29 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" s="8">
-        <v>914851</v>
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <v>912511</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D154" s="3">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="8">
-        <v>914671</v>
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>914214</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -3416,564 +3424,229 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="8">
-        <v>266200</v>
+        <v>153</v>
+      </c>
+      <c r="B156" s="3">
+        <v>914795</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D156" s="3">
-        <v>2.5</v>
+        <v>0.17</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B157" s="8">
-        <v>912907</v>
+        <v>153</v>
+      </c>
+      <c r="B157" s="3">
+        <v>914791</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D157" s="3">
-        <v>3.48</v>
+        <v>0.17</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B158" s="8">
-        <v>912139</v>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3">
+        <v>911625</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B159" s="8">
-        <v>911028</v>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3">
+        <v>914811</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="3">
-        <v>2</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" s="8">
-        <v>912639</v>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3">
+        <v>913162</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D160" s="3">
-        <v>1.43</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="8">
-        <v>914677</v>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3">
+        <v>914887</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="3">
-        <v>0.65</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="8">
-        <v>150811</v>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3">
+        <v>911075</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D162" s="3">
-        <v>2.17</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" s="8">
-        <v>914371</v>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3">
+        <v>915027</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D163" s="3">
-        <v>3.5</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="8">
-        <v>914864</v>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3">
+        <v>910267</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D164" s="3">
-        <v>0.33</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" s="8">
-        <v>911403</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D165" s="3">
-        <v>0.19</v>
-      </c>
+      <c r="A165" s="3"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" s="8">
-        <v>911405</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D166" s="3">
-        <v>0.27</v>
-      </c>
+      <c r="A166" s="3"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B167" s="8">
-        <v>911406</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="3">
-        <v>0.17</v>
-      </c>
+      <c r="A167" s="3"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" s="8">
-        <v>912847</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D168" s="3">
-        <v>7.33</v>
-      </c>
+      <c r="A168" s="3"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="8">
-        <v>150110</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D169" s="3">
-        <v>6.89</v>
-      </c>
+      <c r="A169" s="3"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" s="8">
-        <v>150145</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D170" s="3">
-        <v>0</v>
-      </c>
+      <c r="A170" s="3"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B171" s="8">
-        <v>913161</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D171" s="3">
-        <v>2.12</v>
-      </c>
+      <c r="A171" s="3"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B172" s="8">
-        <v>913019</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D172" s="3">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="A172" s="3"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" s="8">
-        <v>150420</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D173" s="3">
-        <v>1</v>
-      </c>
+      <c r="A173" s="3"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" s="8">
-        <v>912557</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D174" s="3">
-        <v>1.74</v>
-      </c>
+      <c r="A174" s="3"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B175" s="8">
-        <v>914669</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="3">
-        <v>3.17</v>
-      </c>
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B176" s="8">
-        <v>150240</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D176" s="3">
-        <v>13.75</v>
-      </c>
+      <c r="A176" s="3"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="1"/>
     </row>
   </sheetData>
